--- a/features/support/Documents/Search_Tearm_List_Data.xlsx
+++ b/features/support/Documents/Search_Tearm_List_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngunida\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewRubyFramework\btris_automation_regression_suite\features\support\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,21 +27,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Red Code or BTRIS Preferred Name</t>
   </si>
   <si>
-    <t>Sodium Serum Test, (CC, SOFTLAB/MIS, NA)</t>
-  </si>
-  <si>
-    <t>Sodium Test, (CC, MIS, 3620)</t>
-  </si>
-  <si>
-    <t>Sodium Test, (mmol/L), (CC, MIS, 1130)</t>
-  </si>
-  <si>
-    <t>Sodium Test, (mEq/L), (CC, MIS, 1130)</t>
+    <t>Urine Color Observation, (CC, SOFTLAB/MIS, COLOR)</t>
+  </si>
+  <si>
+    <t>Urine Appearance Observation, (CC, SOFTLAB/MIS, APEAR)</t>
+  </si>
+  <si>
+    <t>Urine Specific Gravity, (CC, SOFTLAB/MIS, SPGR)</t>
+  </si>
+  <si>
+    <t>pH Measurement Urine Test, (CC, SOFTLAB/MIS, URPH)</t>
+  </si>
+  <si>
+    <t>Leukocyte Esterase Urine Test, (CC, SOFTLAB, ULEUK)</t>
+  </si>
+  <si>
+    <t>Nitrite Urine Test, (CC, SOFTLAB, UNITR)</t>
+  </si>
+  <si>
+    <t>Protein Qualitative Urine Test, (CC, SOFTLAB/MIS, UPROT)</t>
   </si>
 </sst>
 </file>
@@ -415,7 +424,7 @@
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,13 +458,19 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
